--- a/public/templates/realEstate.xlsx
+++ b/public/templates/realEstate.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>MedInc</t>
   </si>
@@ -51,6 +51,15 @@
   </si>
   <si>
     <t>Longitude</t>
+  </si>
+  <si>
+    <t>6.984126984126984</t>
+  </si>
+  <si>
+    <t>1.0238095238095237</t>
+  </si>
+  <si>
+    <t>2.5555555555555554</t>
   </si>
 </sst>
 </file>
@@ -666,8 +675,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1203,13 +1218,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="7"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
@@ -1235,6 +1250,32 @@
       </c>
       <c r="H1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>8.3252</v>
+      </c>
+      <c r="B2" s="1">
+        <v>41</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1">
+        <v>322</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1">
+        <v>37.88</v>
+      </c>
+      <c r="H2" s="1">
+        <v>-122.23</v>
       </c>
     </row>
   </sheetData>
